--- a/eagle/inductor_test/Results_MoreData.xlsx
+++ b/eagle/inductor_test/Results_MoreData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Scale</t>
   </si>
@@ -42,10 +42,13 @@
     <t>T2: MAX4238</t>
   </si>
   <si>
-    <t>T3: Ideal into S2</t>
+    <t>Exp Power</t>
   </si>
   <si>
-    <t>Exp Power</t>
+    <t>T4: Ideal into MSP430</t>
+  </si>
+  <si>
+    <t>T3: Ideal into MSP430</t>
   </si>
 </sst>
 </file>
@@ -271,11 +274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142537472"/>
-        <c:axId val="142539008"/>
+        <c:axId val="147317888"/>
+        <c:axId val="147319424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142537472"/>
+        <c:axId val="147317888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -285,12 +288,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142539008"/>
+        <c:crossAx val="147319424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142539008"/>
+        <c:axId val="147319424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -302,7 +305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142537472"/>
+        <c:crossAx val="147317888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -495,11 +498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142897536"/>
-        <c:axId val="142899072"/>
+        <c:axId val="148191488"/>
+        <c:axId val="148205568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142897536"/>
+        <c:axId val="148191488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,12 +512,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142899072"/>
+        <c:crossAx val="148205568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142899072"/>
+        <c:axId val="148205568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,7 +528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142897536"/>
+        <c:crossAx val="148191488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -713,11 +716,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68470656"/>
-        <c:axId val="82027264"/>
+        <c:axId val="148212736"/>
+        <c:axId val="148222720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68470656"/>
+        <c:axId val="148212736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,12 +730,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82027264"/>
+        <c:crossAx val="148222720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82027264"/>
+        <c:axId val="148222720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -744,7 +747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68470656"/>
+        <c:crossAx val="148212736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -937,11 +940,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68469120"/>
-        <c:axId val="82029952"/>
+        <c:axId val="148124032"/>
+        <c:axId val="148125568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68469120"/>
+        <c:axId val="148124032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,12 +954,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82029952"/>
+        <c:crossAx val="148125568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82029952"/>
+        <c:axId val="148125568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,7 +970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68469120"/>
+        <c:crossAx val="148124032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -999,7 +1002,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.374842083358506"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1021,10 +1031,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$50:$F$67</c:f>
+              <c:f>Sheet1!$F$50:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.043478260869565</c:v>
                 </c:pt>
@@ -1048,10 +1058,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$50:$C$67</c:f>
+              <c:f>Sheet1!$C$50:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>55.86</c:v>
                 </c:pt>
@@ -1083,11 +1093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142905344"/>
-        <c:axId val="143277440"/>
+        <c:axId val="148149376"/>
+        <c:axId val="148150912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142905344"/>
+        <c:axId val="148149376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,12 +1107,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143277440"/>
+        <c:crossAx val="148150912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143277440"/>
+        <c:axId val="148150912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1114,7 +1124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142905344"/>
+        <c:crossAx val="148149376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1161,10 +1171,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$50:$F$67</c:f>
+              <c:f>Sheet1!$F$50:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.043478260869565</c:v>
                 </c:pt>
@@ -1188,10 +1198,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$50:$B$67</c:f>
+              <c:f>Sheet1!$B$50:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
@@ -1223,11 +1233,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="91868160"/>
-        <c:axId val="96412416"/>
+        <c:axId val="148169088"/>
+        <c:axId val="148170624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91868160"/>
+        <c:axId val="148169088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,12 +1247,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96412416"/>
+        <c:crossAx val="148170624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96412416"/>
+        <c:axId val="148170624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,11 +1263,707 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91868160"/>
+        <c:crossAx val="148169088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.374842083358506"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Reported</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$61:$G$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>18.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.792999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.635000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.319000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.108000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.581000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.682000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>116.20200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152.82900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>189.035</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>224.82000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260.60499999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>297.23199999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>333.017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>370.065</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>408.79699999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>447.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>485.83999999999992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>494.25999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$61:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>196.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>262.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>327.81</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>393.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>458.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>524.96</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>590.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>656.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>721.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>787.35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>827.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>850.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="60296192"/>
+        <c:axId val="60388096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="60296192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60388096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60388096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60296192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$61:$G$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>18.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.792999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.635000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.319000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.108000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.581000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.682000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>116.20200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152.82900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>189.035</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>224.82000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260.60499999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>297.23199999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>333.017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>370.065</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>408.79699999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>447.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>485.83999999999992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>494.25999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.435</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="57777536"/>
+        <c:axId val="60713984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="57777536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60713984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60713984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57777536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$15:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.46 0.575 0.691 0.811 0.938</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.31565594925634294"/>
+                  <c:y val="-3.7396106736657921E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="54892032"/>
+        <c:axId val="54884224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54892032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54884224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54884224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54892032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1399,15 +2105,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1431,15 +2137,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1455,6 +2161,100 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1750,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,7 +2624,7 @@
         <v>128.25</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E67" si="0">SQRT(D5)</f>
+        <f t="shared" ref="E5:E55" si="0">SQRT(D5)</f>
         <v>11.324751652906125</v>
       </c>
     </row>
@@ -2501,7 +3301,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -2522,7 +3322,7 @@
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2687,52 +3487,660 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+    <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>20</v>
+      </c>
+      <c r="B61" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C61" s="3">
+        <v>5.15</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" ref="E61:E62" si="2">SQRT(D61)</f>
+        <v>1.4071247279470289</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" ref="F61:F62" si="3">(A61-39)/6.9</f>
+        <v>-2.7536231884057969</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" ref="G61:G62" si="4">B61*421+5.9</f>
+        <v>18.951000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>30</v>
+      </c>
+      <c r="B62" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>7.71</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5524174696260025</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.3043478260869565</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="4"/>
+        <v>19.792999999999999</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="A63" s="1">
+        <v>40</v>
+      </c>
+      <c r="B63">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C63">
+        <v>11.05</v>
+      </c>
+      <c r="D63">
+        <v>3.98</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" ref="E56:E67" si="5">SQRT(D63)</f>
+        <v>1.9949937343260002</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" ref="F56:F67" si="6">(A63-39)/6.9</f>
+        <v>0.14492753623188406</v>
+      </c>
+      <c r="G63" s="3">
+        <f>B63*421+5.9</f>
+        <v>20.635000000000002</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="A64" s="1">
+        <v>50</v>
+      </c>
+      <c r="B64">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C64">
+        <v>15.27</v>
+      </c>
+      <c r="D64">
+        <v>3.63</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="5"/>
+        <v>1.9052558883257651</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5942028985507246</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" ref="G64:G84" si="7">B64*421+5.9</f>
+        <v>21.477</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="A65" s="1">
+        <v>60</v>
+      </c>
+      <c r="B65">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C65">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D65">
+        <v>3.29</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8138357147217055</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="6"/>
+        <v>3.043478260869565</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="7"/>
+        <v>22.319000000000003</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="A66" s="1">
+        <v>80</v>
+      </c>
+      <c r="B66">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C66">
+        <v>21.43</v>
+      </c>
+      <c r="D66">
+        <v>2.36</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5362291495737217</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="6"/>
+        <v>5.9420289855072461</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="7"/>
+        <v>24.423999999999999</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="A67" s="1">
+        <v>100</v>
+      </c>
+      <c r="B67">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C67">
+        <v>26.11</v>
+      </c>
+      <c r="D67">
+        <v>2.64</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="5"/>
+        <v>1.6248076809271921</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="6"/>
+        <v>8.8405797101449277</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="7"/>
+        <v>26.108000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>150</v>
+      </c>
+      <c r="B68">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C68">
+        <v>39.31</v>
+      </c>
+      <c r="D68">
+        <v>3.02</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" ref="E68:E77" si="8">SQRT(D68)</f>
+        <v>1.7378147196982767</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" ref="F68:F77" si="9">(A68-39)/6.9</f>
+        <v>16.086956521739129</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="7"/>
+        <v>31.581000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>200</v>
+      </c>
+      <c r="B69">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="C69">
+        <v>52.05</v>
+      </c>
+      <c r="D69">
+        <v>2.12</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4560219778561037</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="9"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="7"/>
+        <v>38.317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>300</v>
+      </c>
+      <c r="B70">
+        <v>0.109</v>
+      </c>
+      <c r="C70">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="D70">
+        <v>2.75</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="8"/>
+        <v>1.6583123951776999</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="9"/>
+        <v>37.826086956521735</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="7"/>
+        <v>51.789000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>400</v>
+      </c>
+      <c r="B71">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C71">
+        <v>104.24</v>
+      </c>
+      <c r="D71">
+        <v>4.3</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0736441353327719</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="9"/>
+        <v>52.318840579710141</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="7"/>
+        <v>65.682000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>500</v>
+      </c>
+      <c r="B72">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C72">
+        <v>130.82</v>
+      </c>
+      <c r="D72">
+        <v>4.49</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="8"/>
+        <v>2.118962010041709</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="9"/>
+        <v>66.811594202898547</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="7"/>
+        <v>80.417000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>750</v>
+      </c>
+      <c r="B73">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C73">
+        <v>196.4</v>
+      </c>
+      <c r="D73">
+        <v>7.59</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="8"/>
+        <v>2.7549954627911823</v>
+      </c>
+      <c r="F73" s="3">
+        <f t="shared" si="9"/>
+        <v>103.04347826086956</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="7"/>
+        <v>116.20200000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1000</v>
+      </c>
+      <c r="B74">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="C74">
+        <v>262.08</v>
+      </c>
+      <c r="D74">
+        <v>11.54</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="8"/>
+        <v>3.3970575502926055</v>
+      </c>
+      <c r="F74" s="3">
+        <f t="shared" si="9"/>
+        <v>139.27536231884056</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="7"/>
+        <v>152.82900000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1250</v>
+      </c>
+      <c r="B75">
+        <v>0.435</v>
+      </c>
+      <c r="C75">
+        <v>327.81</v>
+      </c>
+      <c r="D75">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" si="8"/>
+        <v>4.0914545090957564</v>
+      </c>
+      <c r="F75" s="3">
+        <f t="shared" si="9"/>
+        <v>175.50724637681159</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="7"/>
+        <v>189.035</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1500</v>
+      </c>
+      <c r="B76">
+        <v>0.52</v>
+      </c>
+      <c r="C76">
+        <v>393.44</v>
+      </c>
+      <c r="D76">
+        <v>22.34</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" si="8"/>
+        <v>4.7265209192385891</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" si="9"/>
+        <v>211.7391304347826</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="7"/>
+        <v>224.82000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1750</v>
+      </c>
+      <c r="B77">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="C77">
+        <v>458.8</v>
+      </c>
+      <c r="D77">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" si="8"/>
+        <v>5.8991524815010496</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" si="9"/>
+        <v>247.9710144927536</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="7"/>
+        <v>260.60499999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2000</v>
+      </c>
+      <c r="B78">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="C78">
+        <v>524.96</v>
+      </c>
+      <c r="D78">
+        <v>41.37</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" ref="E78:E84" si="10">SQRT(D78)</f>
+        <v>6.4319514923544006</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" ref="F78:F84" si="11">(A78-39)/6.9</f>
+        <v>284.20289855072463</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="7"/>
+        <v>297.23199999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2250</v>
+      </c>
+      <c r="B79">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="C79">
+        <v>590.32000000000005</v>
+      </c>
+      <c r="D79">
+        <v>50.96</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" si="10"/>
+        <v>7.138627319029899</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" si="11"/>
+        <v>320.43478260869563</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="7"/>
+        <v>333.017</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2500</v>
+      </c>
+      <c r="B80">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="C80">
+        <v>656.3</v>
+      </c>
+      <c r="D80">
+        <v>60.13</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" si="10"/>
+        <v>7.7543536158728283</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="11"/>
+        <v>356.66666666666663</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="7"/>
+        <v>370.065</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2750</v>
+      </c>
+      <c r="B81">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="C81">
+        <v>721.6</v>
+      </c>
+      <c r="D81">
+        <v>76.5</v>
+      </c>
+      <c r="E81" s="3">
+        <f t="shared" si="10"/>
+        <v>8.7464278422679502</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="11"/>
+        <v>392.89855072463769</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="7"/>
+        <v>408.79699999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3000</v>
+      </c>
+      <c r="B82">
+        <v>1.05</v>
+      </c>
+      <c r="C82">
+        <v>787.35</v>
+      </c>
+      <c r="D82">
+        <v>89.28</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" si="10"/>
+        <v>9.4488094488141741</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="11"/>
+        <v>429.13043478260869</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" si="7"/>
+        <v>447.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3250</v>
+      </c>
+      <c r="B83">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C83">
+        <v>827.9</v>
+      </c>
+      <c r="D83">
+        <v>922.89</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" si="10"/>
+        <v>30.379104660934299</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="11"/>
+        <v>465.36231884057969</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="7"/>
+        <v>485.83999999999992</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3300</v>
+      </c>
+      <c r="B84">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C84">
+        <v>850.56</v>
+      </c>
+      <c r="D84">
+        <v>1812.08</v>
+      </c>
+      <c r="E84" s="3">
+        <f t="shared" si="10"/>
+        <v>42.568532979185456</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" si="11"/>
+        <v>472.60869565217388</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="7"/>
+        <v>494.25999999999993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/eagle/inductor_test/Results_MoreData.xlsx
+++ b/eagle/inductor_test/Results_MoreData.xlsx
@@ -422,70 +422,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$4:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.6999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.115</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.17299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.22900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.34300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.57499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.69099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.81100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.93799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.17</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -864,70 +800,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$27:$B$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.5999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.0999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.161</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.433</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.54900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.66100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.76900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.88600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1199,28 +1071,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$50:$B$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.1999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.8999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.128</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2000000000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1656,82 +1506,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$61:$B$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>3.1E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.6999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.109</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.14199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.17699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.26200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.34899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.435</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.60499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.69199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.77700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.86499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.95699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.1599999999999999</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1851,34 +1625,6 @@
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$13:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.22900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.81100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.93799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.06</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -2550,16 +2296,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3305,7 +3052,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -3325,7 +3072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>60</v>
       </c>
@@ -3347,7 +3094,7 @@
         <v>3.043478260869565</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>90</v>
       </c>
@@ -3370,7 +3117,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>120</v>
       </c>
@@ -3393,7 +3140,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>180</v>
       </c>
@@ -3416,7 +3163,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -3439,7 +3186,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40</v>
       </c>
@@ -3462,31 +3209,31 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -3494,7 +3241,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>20</v>
       </c>
@@ -3520,7 +3267,7 @@
         <v>18.951000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>30</v>
       </c>
@@ -3546,7 +3293,7 @@
         <v>19.792999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40</v>
       </c>
@@ -3571,8 +3318,10 @@
         <f>B63*421+5.9</f>
         <v>20.635000000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>50</v>
       </c>
@@ -3597,8 +3346,10 @@
         <f t="shared" ref="G64:G84" si="7">B64*421+5.9</f>
         <v>21.477</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>60</v>
       </c>
@@ -3623,8 +3374,10 @@
         <f t="shared" si="7"/>
         <v>22.319000000000003</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>80</v>
       </c>
@@ -3649,8 +3402,10 @@
         <f t="shared" si="7"/>
         <v>24.423999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>100</v>
       </c>
@@ -3675,8 +3430,10 @@
         <f t="shared" si="7"/>
         <v>26.108000000000004</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>150</v>
       </c>
@@ -3701,8 +3458,10 @@
         <f t="shared" si="7"/>
         <v>31.581000000000003</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>200</v>
       </c>
@@ -3727,8 +3486,10 @@
         <f t="shared" si="7"/>
         <v>38.317</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>300</v>
       </c>
@@ -3753,8 +3514,10 @@
         <f t="shared" si="7"/>
         <v>51.789000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>400</v>
       </c>
@@ -3779,8 +3542,10 @@
         <f t="shared" si="7"/>
         <v>65.682000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>500</v>
       </c>
@@ -3805,8 +3570,10 @@
         <f t="shared" si="7"/>
         <v>80.417000000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>750</v>
       </c>
@@ -3831,8 +3598,10 @@
         <f t="shared" si="7"/>
         <v>116.20200000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1000</v>
       </c>
@@ -3857,8 +3626,10 @@
         <f t="shared" si="7"/>
         <v>152.82900000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1250</v>
       </c>
@@ -3883,8 +3654,10 @@
         <f t="shared" si="7"/>
         <v>189.035</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1500</v>
       </c>
@@ -3909,8 +3682,10 @@
         <f t="shared" si="7"/>
         <v>224.82000000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1750</v>
       </c>
@@ -3935,8 +3710,10 @@
         <f t="shared" si="7"/>
         <v>260.60499999999996</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2000</v>
       </c>
@@ -3961,8 +3738,10 @@
         <f t="shared" si="7"/>
         <v>297.23199999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2250</v>
       </c>
@@ -3987,8 +3766,10 @@
         <f t="shared" si="7"/>
         <v>333.017</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2500</v>
       </c>
@@ -4013,8 +3794,10 @@
         <f t="shared" si="7"/>
         <v>370.065</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2750</v>
       </c>
@@ -4039,8 +3822,10 @@
         <f t="shared" si="7"/>
         <v>408.79699999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3000</v>
       </c>
@@ -4065,8 +3850,10 @@
         <f t="shared" si="7"/>
         <v>447.95</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3250</v>
       </c>
@@ -4091,8 +3878,10 @@
         <f t="shared" si="7"/>
         <v>485.83999999999992</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3300</v>
       </c>
@@ -4117,28 +3906,30 @@
         <f t="shared" si="7"/>
         <v>494.25999999999993</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
